--- a/src/test/java/OSA_TestData.xlsx
+++ b/src/test/java/OSA_TestData.xlsx
@@ -1,24 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ajax2\OneDrive\Desktop\programs\eclipse_IDE\eclipse-workspace\com.ecomm.OSA\src\test\java\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68E7FCBE-3717-47BD-A92D-F62493EA5DB5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8252ADE2-EB11-438E-B50A-8FFBB4A0BE5F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="12240" activeTab="1" xr2:uid="{984F4169-E104-46CB-B193-EB03DE8E3FB9}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="5" xr2:uid="{984F4169-E104-46CB-B193-EB03DE8E3FB9}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
+    <sheet name="Sheet5" sheetId="5" r:id="rId5"/>
+    <sheet name="Sheet6" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -26,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="85">
   <si>
     <t>http://rmgtestingserver/domain/Online_Shopping_Application/</t>
   </si>
@@ -116,12 +120,178 @@
   </si>
   <si>
     <t>http://rmgtestingserver/domain/Online_Shopping_Application/admin/user-logs.php</t>
+  </si>
+  <si>
+    <t>Gmail</t>
+  </si>
+  <si>
+    <t>https://mail.google.com/mail/&amp;ogbl</t>
+  </si>
+  <si>
+    <t>200</t>
+  </si>
+  <si>
+    <t>OK</t>
+  </si>
+  <si>
+    <t>Images</t>
+  </si>
+  <si>
+    <t>https://www.google.co.in/imghp?hl=en&amp;ogbl</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>https://www.google.co.in/intl/en/about/products</t>
+  </si>
+  <si>
+    <t>Sign in</t>
+  </si>
+  <si>
+    <t>https://accounts.google.com/ServiceLogin?hl=en&amp;passive=true&amp;continue=https://www.google.com/&amp;ec=GAZAmgQ</t>
+  </si>
+  <si>
+    <t>https://www.google.com/#</t>
+  </si>
+  <si>
+    <t>हिन्दी</t>
+  </si>
+  <si>
+    <t>বাংলা</t>
+  </si>
+  <si>
+    <t>తెలుగు</t>
+  </si>
+  <si>
+    <t>मराठी</t>
+  </si>
+  <si>
+    <t>தமிழ்</t>
+  </si>
+  <si>
+    <t>ગુજરાતી</t>
+  </si>
+  <si>
+    <t>ಕನ್ನಡ</t>
+  </si>
+  <si>
+    <t>മലയാളം</t>
+  </si>
+  <si>
+    <t>ਪੰਜਾਬੀ</t>
+  </si>
+  <si>
+    <t>About</t>
+  </si>
+  <si>
+    <t>https://about.google/?utm_source=google-IN&amp;utm_medium=referral&amp;utm_campaign=hp-footer&amp;fg=1</t>
+  </si>
+  <si>
+    <t>Advertising</t>
+  </si>
+  <si>
+    <t>https://www.google.com/intl/en_in/ads/?subid=ww-ww-et-g-awa-a-g_hpafoot1_1!o2&amp;utm_source=google.com&amp;utm_medium=referral&amp;utm_campaign=google_hpafooter&amp;fg=1</t>
+  </si>
+  <si>
+    <t>Business</t>
+  </si>
+  <si>
+    <t>https://www.google.com/services/?subid=ww-ww-et-g-awa-a-g_hpbfoot1_1!o2&amp;utm_source=google.com&amp;utm_medium=referral&amp;utm_campaign=google_hpbfooter&amp;fg=1</t>
+  </si>
+  <si>
+    <t>How Search works</t>
+  </si>
+  <si>
+    <t>https://google.com/search/howsearchworks/?fg=1</t>
+  </si>
+  <si>
+    <t>Privacy</t>
+  </si>
+  <si>
+    <t>https://policies.google.com/privacy?hl=en-IN&amp;fg=1</t>
+  </si>
+  <si>
+    <t>Terms</t>
+  </si>
+  <si>
+    <t>https://policies.google.com/terms?hl=en-IN&amp;fg=1</t>
+  </si>
+  <si>
+    <t>https://www.google.com/preferences?hl=en-IN&amp;fg=1</t>
+  </si>
+  <si>
+    <t>https://www.google.com/advanced_search?hl=en-IN&amp;fg=1</t>
+  </si>
+  <si>
+    <t>https://www.google.com/history/privacyadvisor/search/unauth?utm_source=googlemenu&amp;fg=1&amp;cctld=com</t>
+  </si>
+  <si>
+    <t>https://www.google.com/history/optout?hl=en-IN&amp;fg=1</t>
+  </si>
+  <si>
+    <t>https://support.google.com/websearch/?p=ws_results_help&amp;hl=en-IN&amp;fg=1</t>
+  </si>
+  <si>
+    <t>https://www.google.com/setprefs?sig=0_YCpst6nuB8oa9QegIfvnGNEvtNI%3D&amp;hl=bn&amp;source=homepage&amp;sa=X&amp;ved=0ahUKEwjd4r-_mOD8AhWxmFYBHQP5AdwQ2ZgBCBI</t>
+  </si>
+  <si>
+    <t>https://www.google.com/setprefs?sig=0_YCpst6nuB8oa9QegIfvnGNEvtNI%3D&amp;hl=te&amp;source=homepage&amp;sa=X&amp;ved=0ahUKEwjd4r-_mOD8AhWxmFYBHQP5AdwQ2ZgBCBM</t>
+  </si>
+  <si>
+    <t>https://www.google.com/setprefs?sig=0_YCpst6nuB8oa9QegIfvnGNEvtNI%3D&amp;hl=mr&amp;source=homepage&amp;sa=X&amp;ved=0ahUKEwjd4r-_mOD8AhWxmFYBHQP5AdwQ2ZgBCBQ</t>
+  </si>
+  <si>
+    <t>https://www.google.com/setprefs?sig=0_YCpst6nuB8oa9QegIfvnGNEvtNI%3D&amp;hl=ta&amp;source=homepage&amp;sa=X&amp;ved=0ahUKEwjd4r-_mOD8AhWxmFYBHQP5AdwQ2ZgBCBU</t>
+  </si>
+  <si>
+    <t>https://www.google.com/setprefs?sig=0_YCpst6nuB8oa9QegIfvnGNEvtNI%3D&amp;hl=gu&amp;source=homepage&amp;sa=X&amp;ved=0ahUKEwjd4r-_mOD8AhWxmFYBHQP5AdwQ2ZgBCBY</t>
+  </si>
+  <si>
+    <t>https://www.google.com/setprefs?sig=0_YCpst6nuB8oa9QegIfvnGNEvtNI%3D&amp;hl=kn&amp;source=homepage&amp;sa=X&amp;ved=0ahUKEwjd4r-_mOD8AhWxmFYBHQP5AdwQ2ZgBCBc</t>
+  </si>
+  <si>
+    <t>https://www.google.com/setprefs?sig=0_YCpst6nuB8oa9QegIfvnGNEvtNI%3D&amp;hl=ml&amp;source=homepage&amp;sa=X&amp;ved=0ahUKEwjd4r-_mOD8AhWxmFYBHQP5AdwQ2ZgBCBg</t>
+  </si>
+  <si>
+    <t>https://www.google.com/setprefs?sig=0_YCpst6nuB8oa9QegIfvnGNEvtNI%3D&amp;hl=pa&amp;source=homepage&amp;sa=X&amp;ved=0ahUKEwjd4r-_mOD8AhWxmFYBHQP5AdwQ2ZgBCBk</t>
+  </si>
+  <si>
+    <t>https://www.google.com/setprefs?sig=0_2NRBlW7x-lu5VFEfgRCq2ghac3U%3D&amp;hl=hi&amp;source=homepage&amp;sa=X&amp;ved=0ahUKEwjhw-HN0ef8AhVGf94KHajuA0YQ2ZgBCBA</t>
+  </si>
+  <si>
+    <t>https://www.google.com/setprefs?sig=0_kRLmJH4MHEb0Iyo8c7CA6IvWbpY%3D&amp;hl=hi&amp;source=homepage&amp;sa=X&amp;ved=0ahUKEwigoff60uf8AhVbx2EKHfNFBBsQ2ZgBCBA</t>
+  </si>
+  <si>
+    <t>https://www.google.com/setprefs?sig=0_kRLmJH4MHEb0Iyo8c7CA6IvWbpY%3D&amp;hl=bn&amp;source=homepage&amp;sa=X&amp;ved=0ahUKEwigoff60uf8AhVbx2EKHfNFBBsQ2ZgBCBE</t>
+  </si>
+  <si>
+    <t>https://www.google.com/setprefs?sig=0_kRLmJH4MHEb0Iyo8c7CA6IvWbpY%3D&amp;hl=te&amp;source=homepage&amp;sa=X&amp;ved=0ahUKEwigoff60uf8AhVbx2EKHfNFBBsQ2ZgBCBI</t>
+  </si>
+  <si>
+    <t>https://www.google.com/setprefs?sig=0_kRLmJH4MHEb0Iyo8c7CA6IvWbpY%3D&amp;hl=mr&amp;source=homepage&amp;sa=X&amp;ved=0ahUKEwigoff60uf8AhVbx2EKHfNFBBsQ2ZgBCBM</t>
+  </si>
+  <si>
+    <t>https://www.google.com/setprefs?sig=0_kRLmJH4MHEb0Iyo8c7CA6IvWbpY%3D&amp;hl=ta&amp;source=homepage&amp;sa=X&amp;ved=0ahUKEwigoff60uf8AhVbx2EKHfNFBBsQ2ZgBCBQ</t>
+  </si>
+  <si>
+    <t>https://www.google.com/setprefs?sig=0_kRLmJH4MHEb0Iyo8c7CA6IvWbpY%3D&amp;hl=gu&amp;source=homepage&amp;sa=X&amp;ved=0ahUKEwigoff60uf8AhVbx2EKHfNFBBsQ2ZgBCBU</t>
+  </si>
+  <si>
+    <t>https://www.google.com/setprefs?sig=0_kRLmJH4MHEb0Iyo8c7CA6IvWbpY%3D&amp;hl=kn&amp;source=homepage&amp;sa=X&amp;ved=0ahUKEwigoff60uf8AhVbx2EKHfNFBBsQ2ZgBCBY</t>
+  </si>
+  <si>
+    <t>https://www.google.com/setprefs?sig=0_kRLmJH4MHEb0Iyo8c7CA6IvWbpY%3D&amp;hl=ml&amp;source=homepage&amp;sa=X&amp;ved=0ahUKEwigoff60uf8AhVbx2EKHfNFBBsQ2ZgBCBc</t>
+  </si>
+  <si>
+    <t>https://www.google.com/setprefs?sig=0_kRLmJH4MHEb0Iyo8c7CA6IvWbpY%3D&amp;hl=pa&amp;source=homepage&amp;sa=X&amp;ved=0ahUKEwigoff60uf8AhVbx2EKHfNFBBsQ2ZgBCBg</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -470,7 +640,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -486,7 +656,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="59.21875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="59.21875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
@@ -582,13 +752,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25CBE97D-5EE6-48AE-8679-24A6A5CC0A5B}">
   <dimension ref="A2:A17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A106" workbookViewId="0">
       <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="88.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="88.44140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:1" x14ac:dyDescent="0.3">
@@ -674,4 +844,827 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C475491-4B9D-4B68-B109-F4AE0D97FDDE}">
+  <dimension ref="A1:D25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="16.109375" collapsed="false"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="150.109375" collapsed="false"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="4.0" collapsed="false"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C4" t="s">
+        <v>32</v>
+      </c>
+      <c r="D4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>36</v>
+      </c>
+      <c r="B5" t="s">
+        <v>40</v>
+      </c>
+      <c r="C5" t="s">
+        <v>32</v>
+      </c>
+      <c r="D5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>41</v>
+      </c>
+      <c r="B6" t="s">
+        <v>75</v>
+      </c>
+      <c r="C6" t="s">
+        <v>32</v>
+      </c>
+      <c r="D6" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>42</v>
+      </c>
+      <c r="B7" t="s">
+        <v>67</v>
+      </c>
+      <c r="C7" t="s">
+        <v>32</v>
+      </c>
+      <c r="D7" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>43</v>
+      </c>
+      <c r="B8" t="s">
+        <v>68</v>
+      </c>
+      <c r="C8" t="s">
+        <v>32</v>
+      </c>
+      <c r="D8" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>44</v>
+      </c>
+      <c r="B9" t="s">
+        <v>69</v>
+      </c>
+      <c r="C9" t="s">
+        <v>32</v>
+      </c>
+      <c r="D9" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>45</v>
+      </c>
+      <c r="B10" t="s">
+        <v>70</v>
+      </c>
+      <c r="C10" t="s">
+        <v>32</v>
+      </c>
+      <c r="D10" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>46</v>
+      </c>
+      <c r="B11" t="s">
+        <v>71</v>
+      </c>
+      <c r="C11" t="s">
+        <v>32</v>
+      </c>
+      <c r="D11" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>47</v>
+      </c>
+      <c r="B12" t="s">
+        <v>72</v>
+      </c>
+      <c r="C12" t="s">
+        <v>32</v>
+      </c>
+      <c r="D12" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>48</v>
+      </c>
+      <c r="B13" t="s">
+        <v>73</v>
+      </c>
+      <c r="C13" t="s">
+        <v>32</v>
+      </c>
+      <c r="D13" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>49</v>
+      </c>
+      <c r="B14" t="s">
+        <v>74</v>
+      </c>
+      <c r="C14" t="s">
+        <v>32</v>
+      </c>
+      <c r="D14" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>50</v>
+      </c>
+      <c r="B15" t="s">
+        <v>51</v>
+      </c>
+      <c r="C15" t="s">
+        <v>32</v>
+      </c>
+      <c r="D15" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>52</v>
+      </c>
+      <c r="B16" t="s">
+        <v>53</v>
+      </c>
+      <c r="C16" t="s">
+        <v>32</v>
+      </c>
+      <c r="D16" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>54</v>
+      </c>
+      <c r="B17" t="s">
+        <v>55</v>
+      </c>
+      <c r="C17" t="s">
+        <v>32</v>
+      </c>
+      <c r="D17" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>56</v>
+      </c>
+      <c r="B18" t="s">
+        <v>57</v>
+      </c>
+      <c r="C18" t="s">
+        <v>32</v>
+      </c>
+      <c r="D18" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>58</v>
+      </c>
+      <c r="B19" t="s">
+        <v>59</v>
+      </c>
+      <c r="C19" t="s">
+        <v>32</v>
+      </c>
+      <c r="D19" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>60</v>
+      </c>
+      <c r="B20" t="s">
+        <v>61</v>
+      </c>
+      <c r="C20" t="s">
+        <v>32</v>
+      </c>
+      <c r="D20" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>36</v>
+      </c>
+      <c r="B21" t="s">
+        <v>62</v>
+      </c>
+      <c r="C21" t="s">
+        <v>32</v>
+      </c>
+      <c r="D21" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>36</v>
+      </c>
+      <c r="B22" t="s">
+        <v>63</v>
+      </c>
+      <c r="C22" t="s">
+        <v>32</v>
+      </c>
+      <c r="D22" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>36</v>
+      </c>
+      <c r="B23" t="s">
+        <v>64</v>
+      </c>
+      <c r="C23" t="s">
+        <v>32</v>
+      </c>
+      <c r="D23" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>36</v>
+      </c>
+      <c r="B24" t="s">
+        <v>65</v>
+      </c>
+      <c r="C24" t="s">
+        <v>32</v>
+      </c>
+      <c r="D24" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>36</v>
+      </c>
+      <c r="B25" t="s">
+        <v>66</v>
+      </c>
+      <c r="C25" t="s">
+        <v>32</v>
+      </c>
+      <c r="D25" t="s">
+        <v>33</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FBF6BDFE-B132-4097-A4FF-759B94CF9A6E}">
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1">
+        <v>1</v>
+      </c>
+      <c r="C1">
+        <v>1</v>
+      </c>
+      <c r="D1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>41</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED2494B6-48A7-40FB-B7F2-A63D87FF222B}">
+  <dimension ref="A1:D1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43AC249B-F215-4EFF-A8E4-5AE45E04A7CC}">
+  <dimension ref="A1:D25"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C4" t="s">
+        <v>32</v>
+      </c>
+      <c r="D4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>36</v>
+      </c>
+      <c r="B5" t="s">
+        <v>40</v>
+      </c>
+      <c r="C5" t="s">
+        <v>32</v>
+      </c>
+      <c r="D5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>41</v>
+      </c>
+      <c r="B6" t="s">
+        <v>76</v>
+      </c>
+      <c r="C6" t="s">
+        <v>32</v>
+      </c>
+      <c r="D6" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>42</v>
+      </c>
+      <c r="B7" t="s">
+        <v>77</v>
+      </c>
+      <c r="C7" t="s">
+        <v>32</v>
+      </c>
+      <c r="D7" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>43</v>
+      </c>
+      <c r="B8" t="s">
+        <v>78</v>
+      </c>
+      <c r="C8" t="s">
+        <v>32</v>
+      </c>
+      <c r="D8" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>44</v>
+      </c>
+      <c r="B9" t="s">
+        <v>79</v>
+      </c>
+      <c r="C9" t="s">
+        <v>32</v>
+      </c>
+      <c r="D9" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>45</v>
+      </c>
+      <c r="B10" t="s">
+        <v>80</v>
+      </c>
+      <c r="C10" t="s">
+        <v>32</v>
+      </c>
+      <c r="D10" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>46</v>
+      </c>
+      <c r="B11" t="s">
+        <v>81</v>
+      </c>
+      <c r="C11" t="s">
+        <v>32</v>
+      </c>
+      <c r="D11" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>47</v>
+      </c>
+      <c r="B12" t="s">
+        <v>82</v>
+      </c>
+      <c r="C12" t="s">
+        <v>32</v>
+      </c>
+      <c r="D12" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s">
+        <v>48</v>
+      </c>
+      <c r="B13" t="s">
+        <v>83</v>
+      </c>
+      <c r="C13" t="s">
+        <v>32</v>
+      </c>
+      <c r="D13" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s">
+        <v>49</v>
+      </c>
+      <c r="B14" t="s">
+        <v>84</v>
+      </c>
+      <c r="C14" t="s">
+        <v>32</v>
+      </c>
+      <c r="D14" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s">
+        <v>50</v>
+      </c>
+      <c r="B15" t="s">
+        <v>51</v>
+      </c>
+      <c r="C15" t="s">
+        <v>32</v>
+      </c>
+      <c r="D15" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s">
+        <v>52</v>
+      </c>
+      <c r="B16" t="s">
+        <v>53</v>
+      </c>
+      <c r="C16" t="s">
+        <v>32</v>
+      </c>
+      <c r="D16" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s">
+        <v>54</v>
+      </c>
+      <c r="B17" t="s">
+        <v>55</v>
+      </c>
+      <c r="C17" t="s">
+        <v>32</v>
+      </c>
+      <c r="D17" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s">
+        <v>56</v>
+      </c>
+      <c r="B18" t="s">
+        <v>57</v>
+      </c>
+      <c r="C18" t="s">
+        <v>32</v>
+      </c>
+      <c r="D18" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s">
+        <v>58</v>
+      </c>
+      <c r="B19" t="s">
+        <v>59</v>
+      </c>
+      <c r="C19" t="s">
+        <v>32</v>
+      </c>
+      <c r="D19" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s">
+        <v>60</v>
+      </c>
+      <c r="B20" t="s">
+        <v>61</v>
+      </c>
+      <c r="C20" t="s">
+        <v>32</v>
+      </c>
+      <c r="D20" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s">
+        <v>36</v>
+      </c>
+      <c r="B21" t="s">
+        <v>62</v>
+      </c>
+      <c r="C21" t="s">
+        <v>32</v>
+      </c>
+      <c r="D21" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s">
+        <v>36</v>
+      </c>
+      <c r="B22" t="s">
+        <v>63</v>
+      </c>
+      <c r="C22" t="s">
+        <v>32</v>
+      </c>
+      <c r="D22" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s">
+        <v>36</v>
+      </c>
+      <c r="B23" t="s">
+        <v>64</v>
+      </c>
+      <c r="C23" t="s">
+        <v>32</v>
+      </c>
+      <c r="D23" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s">
+        <v>36</v>
+      </c>
+      <c r="B24" t="s">
+        <v>65</v>
+      </c>
+      <c r="C24" t="s">
+        <v>32</v>
+      </c>
+      <c r="D24" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s">
+        <v>36</v>
+      </c>
+      <c r="B25" t="s">
+        <v>66</v>
+      </c>
+      <c r="C25" t="s">
+        <v>32</v>
+      </c>
+      <c r="D25" t="s">
+        <v>33</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>